--- a/benchmarktests/testdefinitions/Benchmarktest_traject 13-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 13-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86B656-0805-4F4B-8D77-2935C707D521}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B244EB5A-8C11-4EBD-B976-466F713987C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="5" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2482,7 +2482,7 @@
   </sheetPr>
   <dimension ref="B1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E40"/>
     </sheetView>
   </sheetViews>
@@ -2536,11 +2536,11 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f>IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D3:D40" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f>IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E3:E40" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F3" s="4" t="str">
@@ -2580,11 +2580,11 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f>IF(COUNTIF(F4:L4,"D")&gt;0,"D",IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E4" s="23" t="str">
-        <f>IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F4" s="9" t="str">
@@ -2624,11 +2624,11 @@
         <v>0.755</v>
       </c>
       <c r="D5" s="23" t="str">
-        <f>IF(COUNTIF(F5:L5,"D")&gt;0,"D",IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E5" s="23" t="str">
-        <f>IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F5" s="9" t="str">
@@ -2668,11 +2668,11 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="D6" s="23" t="str">
-        <f>IF(COUNTIF(F6:L6,"D")&gt;0,"D",IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E6" s="23" t="str">
-        <f>IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F6" s="9" t="str">
@@ -2712,11 +2712,11 @@
         <v>1.0509999999999999</v>
       </c>
       <c r="D7" s="23" t="str">
-        <f>IF(COUNTIF(F7:L7,"D")&gt;0,"D",IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E7" s="23" t="str">
-        <f>IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F7" s="9" t="str">
@@ -2756,11 +2756,11 @@
         <v>1.214</v>
       </c>
       <c r="D8" s="23" t="str">
-        <f>IF(COUNTIF(F8:L8,"D")&gt;0,"D",IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E8" s="23" t="str">
-        <f>IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F8" s="9" t="str">
@@ -2800,11 +2800,11 @@
         <v>1.383</v>
       </c>
       <c r="D9" s="23" t="str">
-        <f>IF(COUNTIF(F9:L9,"D")&gt;0,"D",IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E9" s="23" t="str">
-        <f>IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F9" s="9" t="str">
@@ -2844,11 +2844,11 @@
         <v>1.5289999999999999</v>
       </c>
       <c r="D10" s="23" t="str">
-        <f>IF(COUNTIF(F10:L10,"D")&gt;0,"D",IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E10" s="23" t="str">
-        <f>IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F10" s="9" t="str">
@@ -2888,11 +2888,11 @@
         <v>1.661</v>
       </c>
       <c r="D11" s="23" t="str">
-        <f>IF(COUNTIF(F11:L11,"D")&gt;0,"D",IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E11" s="23" t="str">
-        <f>IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F11" s="9" t="str">
@@ -2932,11 +2932,11 @@
         <v>1.79</v>
       </c>
       <c r="D12" s="23" t="str">
-        <f>IF(COUNTIF(F12:L12,"D")&gt;0,"D",IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E12" s="23" t="str">
-        <f>IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F12" s="9" t="str">
@@ -2976,11 +2976,11 @@
         <v>1.929</v>
       </c>
       <c r="D13" s="23" t="str">
-        <f>IF(COUNTIF(F13:L13,"D")&gt;0,"D",IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E13" s="23" t="str">
-        <f>IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F13" s="9" t="str">
@@ -3020,11 +3020,11 @@
         <v>2.0910000000000002</v>
       </c>
       <c r="D14" s="23" t="str">
-        <f>IF(COUNTIF(F14:L14,"D")&gt;0,"D",IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E14" s="23" t="str">
-        <f>IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F14" s="9" t="str">
@@ -3064,11 +3064,11 @@
         <v>2.254</v>
       </c>
       <c r="D15" s="23" t="str">
-        <f>IF(COUNTIF(F15:L15,"D")&gt;0,"D",IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E15" s="23" t="str">
-        <f>IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F15" s="9" t="str">
@@ -3108,11 +3108,11 @@
         <v>2.395</v>
       </c>
       <c r="D16" s="23" t="str">
-        <f>IF(COUNTIF(F16:L16,"D")&gt;0,"D",IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E16" s="23" t="str">
-        <f>IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F16" s="9" t="str">
@@ -3152,11 +3152,11 @@
         <v>2.524</v>
       </c>
       <c r="D17" s="23" t="str">
-        <f>IF(COUNTIF(F17:L17,"D")&gt;0,"D",IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E17" s="23" t="str">
-        <f>IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F17" s="9" t="str">
@@ -3196,11 +3196,11 @@
         <v>2.6560000000000001</v>
       </c>
       <c r="D18" s="23" t="str">
-        <f>IF(COUNTIF(F18:L18,"D")&gt;0,"D",IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E18" s="23" t="str">
-        <f>IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F18" s="9" t="str">
@@ -3240,11 +3240,11 @@
         <v>2.7959999999999998</v>
       </c>
       <c r="D19" s="23" t="str">
-        <f>IF(COUNTIF(F19:L19,"D")&gt;0,"D",IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E19" s="23" t="str">
-        <f>IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F19" s="9" t="str">
@@ -3284,11 +3284,11 @@
         <v>2.9569999999999999</v>
       </c>
       <c r="D20" s="23" t="str">
-        <f>IF(COUNTIF(F20:L20,"D")&gt;0,"D",IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E20" s="23" t="str">
-        <f>IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F20" s="9" t="str">
@@ -3328,11 +3328,11 @@
         <v>3.129</v>
       </c>
       <c r="D21" s="23" t="str">
-        <f>IF(COUNTIF(F21:L21,"D")&gt;0,"D",IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E21" s="23" t="str">
-        <f>IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F21" s="9" t="str">
@@ -3372,11 +3372,11 @@
         <v>3.302</v>
       </c>
       <c r="D22" s="23" t="str">
-        <f>IF(COUNTIF(F22:L22,"D")&gt;0,"D",IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E22" s="23" t="str">
-        <f>IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F22" s="9" t="str">
@@ -3416,11 +3416,11 @@
         <v>3.4630000000000001</v>
       </c>
       <c r="D23" s="23" t="str">
-        <f>IF(COUNTIF(F23:L23,"D")&gt;0,"D",IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E23" s="23" t="str">
-        <f>IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F23" s="9" t="str">
@@ -3460,11 +3460,11 @@
         <v>3.5960000000000001</v>
       </c>
       <c r="D24" s="23" t="str">
-        <f>IF(COUNTIF(F24:L24,"D")&gt;0,"D",IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E24" s="23" t="str">
-        <f>IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F24" s="9" t="str">
@@ -3504,11 +3504,11 @@
         <v>3.726</v>
       </c>
       <c r="D25" s="23" t="str">
-        <f>IF(COUNTIF(F25:L25,"D")&gt;0,"D",IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E25" s="23" t="str">
-        <f>IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F25" s="9" t="str">
@@ -3548,11 +3548,11 @@
         <v>3.8559999999999999</v>
       </c>
       <c r="D26" s="23" t="str">
-        <f>IF(COUNTIF(F26:L26,"D")&gt;0,"D",IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E26" s="23" t="str">
-        <f>IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F26" s="9" t="str">
@@ -3592,11 +3592,11 @@
         <v>3.9809999999999999</v>
       </c>
       <c r="D27" s="23" t="str">
-        <f>IF(COUNTIF(F27:L27,"D")&gt;0,"D",IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E27" s="23" t="str">
-        <f>IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F27" s="9" t="str">
@@ -3636,11 +3636,11 @@
         <v>4.1050000000000004</v>
       </c>
       <c r="D28" s="23" t="str">
-        <f>IF(COUNTIF(F28:L28,"D")&gt;0,"D",IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E28" s="23" t="str">
-        <f>IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F28" s="9" t="str">
@@ -3680,11 +3680,11 @@
         <v>4.2359999999999998</v>
       </c>
       <c r="D29" s="23" t="str">
-        <f>IF(COUNTIF(F29:L29,"D")&gt;0,"D",IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E29" s="23" t="str">
-        <f>IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F29" s="9" t="str">
@@ -3724,11 +3724,11 @@
         <v>4.38</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f>IF(COUNTIF(F30:L30,"D")&gt;0,"D",IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E30" s="23" t="str">
-        <f>IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F30" s="9" t="str">
@@ -3768,11 +3768,11 @@
         <v>4.5129999999999999</v>
       </c>
       <c r="D31" s="23" t="str">
-        <f>IF(COUNTIF(F31:L31,"D")&gt;0,"D",IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E31" s="23" t="str">
-        <f>IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F31" s="9" t="str">
@@ -3812,11 +3812,11 @@
         <v>4.6340000000000003</v>
       </c>
       <c r="D32" s="23" t="str">
-        <f>IF(COUNTIF(F32:L32,"D")&gt;0,"D",IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E32" s="23" t="str">
-        <f>IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F32" s="9" t="str">
@@ -3856,11 +3856,11 @@
         <v>4.7480000000000002</v>
       </c>
       <c r="D33" s="23" t="str">
-        <f>IF(COUNTIF(F33:L33,"D")&gt;0,"D",IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E33" s="23" t="str">
-        <f>IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F33" s="9" t="str">
@@ -3900,11 +3900,11 @@
         <v>4.8609999999999998</v>
       </c>
       <c r="D34" s="23" t="str">
-        <f>IF(COUNTIF(F34:L34,"D")&gt;0,"D",IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E34" s="23" t="str">
-        <f>IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F34" s="9" t="str">
@@ -3944,11 +3944,11 @@
         <v>4.9749999999999996</v>
       </c>
       <c r="D35" s="23" t="str">
-        <f>IF(COUNTIF(F35:L35,"D")&gt;0,"D",IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E35" s="23" t="str">
-        <f>IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F35" s="9" t="str">
@@ -3988,11 +3988,11 @@
         <v>5.0910000000000002</v>
       </c>
       <c r="D36" s="23" t="str">
-        <f>IF(COUNTIF(F36:L36,"D")&gt;0,"D",IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E36" s="23" t="str">
-        <f>IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F36" s="9" t="str">
@@ -4032,11 +4032,11 @@
         <v>5.2140000000000004</v>
       </c>
       <c r="D37" s="23" t="str">
-        <f>IF(COUNTIF(F37:L37,"D")&gt;0,"D",IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E37" s="23" t="str">
-        <f>IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F37" s="9" t="str">
@@ -4076,11 +4076,11 @@
         <v>5.3390000000000004</v>
       </c>
       <c r="D38" s="23" t="str">
-        <f>IF(COUNTIF(F38:L38,"D")&gt;0,"D",IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E38" s="23" t="str">
-        <f>IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F38" s="9" t="str">
@@ -4120,11 +4120,11 @@
         <v>5.4950000000000001</v>
       </c>
       <c r="D39" s="23" t="str">
-        <f>IF(COUNTIF(F39:L39,"D")&gt;0,"D",IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E39" s="23" t="str">
-        <f>IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F39" s="9" t="str">
@@ -4164,11 +4164,11 @@
         <v>5.7050000000000001</v>
       </c>
       <c r="D40" s="23" t="str">
-        <f>IF(COUNTIF(F40:L40,"D")&gt;0,"D",IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E40" s="23" t="str">
-        <f>IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F40" s="9" t="str">
@@ -5397,7 +5397,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5584,7 +5584,7 @@
         <v>NR</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q29" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
@@ -5592,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S29" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
@@ -5600,11 +5600,11 @@
         <v>0</v>
       </c>
       <c r="U11" s="9">
-        <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="V11" s="9">
-        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W11" s="9" t="str">
@@ -5631,38 +5631,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>
       <c r="O12" s="32"/>
-      <c r="Q12" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="10">
-        <f t="shared" ref="R12:R30" si="5">IF(M12="-",1,Q12)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="10">
-        <f t="shared" ref="T12:T30" si="6">IF(L12="-",0,S12)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="9">
-        <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V12" s="9">
-        <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V12)</f>
-        <v>+III</v>
-      </c>
-      <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X30" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="12"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
@@ -5679,38 +5655,14 @@
       <c r="M13" s="10"/>
       <c r="N13" s="11"/>
       <c r="O13" s="32"/>
-      <c r="Q13" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="9">
-        <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V13" s="9">
-        <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V13)</f>
-        <v>+III</v>
-      </c>
-      <c r="X13" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="12"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -5727,38 +5679,14 @@
       <c r="M14" s="10"/>
       <c r="N14" s="11"/>
       <c r="O14" s="32"/>
-      <c r="Q14" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="9">
-        <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V14" s="9">
-        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V14)</f>
-        <v>+III</v>
-      </c>
-      <c r="X14" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="12"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
@@ -5775,38 +5703,14 @@
       <c r="M15" s="10"/>
       <c r="N15" s="11"/>
       <c r="O15" s="32"/>
-      <c r="Q15" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R15" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S15" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="9">
-        <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V15" s="9">
-        <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V15)</f>
-        <v>+III</v>
-      </c>
-      <c r="X15" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="12"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
@@ -5823,38 +5727,14 @@
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
       <c r="O16" s="32"/>
-      <c r="Q16" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R16" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S16" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="9">
-        <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V16" s="9">
-        <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V16)</f>
-        <v>+III</v>
-      </c>
-      <c r="X16" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="12"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -5871,38 +5751,14 @@
       <c r="M17" s="10"/>
       <c r="N17" s="11"/>
       <c r="O17" s="32"/>
-      <c r="Q17" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S17" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="9">
-        <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V17" s="9">
-        <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V17)</f>
-        <v>+III</v>
-      </c>
-      <c r="X17" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="12"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
@@ -5919,38 +5775,14 @@
       <c r="M18" s="10"/>
       <c r="N18" s="11"/>
       <c r="O18" s="32"/>
-      <c r="Q18" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="9">
-        <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V18" s="9">
-        <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V18)</f>
-        <v>+III</v>
-      </c>
-      <c r="X18" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="12"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -5967,38 +5799,14 @@
       <c r="M19" s="10"/>
       <c r="N19" s="11"/>
       <c r="O19" s="32"/>
-      <c r="Q19" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="9">
-        <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V19" s="9">
-        <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V19)</f>
-        <v>+III</v>
-      </c>
-      <c r="X19" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="12"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -6015,38 +5823,14 @@
       <c r="M20" s="10"/>
       <c r="N20" s="11"/>
       <c r="O20" s="32"/>
-      <c r="Q20" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="9">
-        <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V20" s="9">
-        <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V20)</f>
-        <v>+III</v>
-      </c>
-      <c r="X20" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="12"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -6063,38 +5847,14 @@
       <c r="M21" s="10"/>
       <c r="N21" s="11"/>
       <c r="O21" s="32"/>
-      <c r="Q21" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R21" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="9">
-        <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V21" s="9">
-        <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V21)</f>
-        <v>+III</v>
-      </c>
-      <c r="X21" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="12"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
@@ -6111,38 +5871,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="11"/>
       <c r="O22" s="32"/>
-      <c r="Q22" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R22" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="9">
-        <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V22" s="9">
-        <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V22)</f>
-        <v>+III</v>
-      </c>
-      <c r="X22" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="12"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -6159,38 +5895,14 @@
       <c r="M23" s="10"/>
       <c r="N23" s="11"/>
       <c r="O23" s="32"/>
-      <c r="Q23" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R23" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S23" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="9">
-        <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V23" s="9">
-        <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V23)</f>
-        <v>+III</v>
-      </c>
-      <c r="X23" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="12"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
@@ -6207,38 +5919,14 @@
       <c r="M24" s="10"/>
       <c r="N24" s="11"/>
       <c r="O24" s="32"/>
-      <c r="Q24" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R24" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="9">
-        <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V24" s="9">
-        <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W24" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V24)</f>
-        <v>+III</v>
-      </c>
-      <c r="X24" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="12"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -6255,38 +5943,14 @@
       <c r="M25" s="10"/>
       <c r="N25" s="11"/>
       <c r="O25" s="32"/>
-      <c r="Q25" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R25" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="9">
-        <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V25" s="9">
-        <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W25" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V25)</f>
-        <v>+III</v>
-      </c>
-      <c r="X25" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="12"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
@@ -6303,38 +5967,14 @@
       <c r="M26" s="10"/>
       <c r="N26" s="11"/>
       <c r="O26" s="32"/>
-      <c r="Q26" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="9">
-        <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V26" s="9">
-        <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W26" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V26)</f>
-        <v>+III</v>
-      </c>
-      <c r="X26" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="12"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
@@ -6351,38 +5991,14 @@
       <c r="M27" s="10"/>
       <c r="N27" s="11"/>
       <c r="O27" s="32"/>
-      <c r="Q27" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="9">
-        <f t="array" ref="U27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V27" s="9">
-        <f>IFERROR(MATCH($U27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W27" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V27)</f>
-        <v>+III</v>
-      </c>
-      <c r="X27" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="12"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
@@ -6399,38 +6015,14 @@
       <c r="M28" s="10"/>
       <c r="N28" s="11"/>
       <c r="O28" s="32"/>
-      <c r="Q28" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R28" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S28" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="9">
-        <f t="array" ref="U28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V28" s="9">
-        <f>IFERROR(MATCH($U28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W28" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V28)</f>
-        <v>+III</v>
-      </c>
-      <c r="X28" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="12"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
@@ -6447,38 +6039,14 @@
       <c r="M29" s="10"/>
       <c r="N29" s="11"/>
       <c r="O29" s="32"/>
-      <c r="Q29" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R29" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="9">
-        <f t="array" ref="U29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V29" s="9">
-        <f>IFERROR(MATCH($U29,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W29" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V29)</f>
-        <v>+III</v>
-      </c>
-      <c r="X29" s="12" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="12"/>
     </row>
     <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
@@ -6495,38 +6063,14 @@
       <c r="M30" s="15"/>
       <c r="N30" s="16"/>
       <c r="O30" s="34"/>
-      <c r="Q30" s="33">
-        <f>IF(AND(F30="Geen faalkans",I30="Nee"),1,1-M30)</f>
-        <v>1</v>
-      </c>
-      <c r="R30" s="15">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S30" s="15">
-        <f>IF(AND(F30="Geen faalkans",I30="Nee"),0,L30*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="14">
-        <f t="array" ref="U30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V30" s="14">
-        <f>IFERROR(MATCH($U30,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W30" s="14" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V30)</f>
-        <v>+III</v>
-      </c>
-      <c r="X30" s="17" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
@@ -6651,7 +6195,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="Q12" sqref="Q12:X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6838,7 +6382,7 @@
         <v>NR</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q26" si="2">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11" si="2">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
@@ -6846,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S26" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
@@ -6854,11 +6398,11 @@
         <v>0</v>
       </c>
       <c r="U11" s="9">
-        <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="V11" s="9">
-        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W11" s="9" t="str">
@@ -6885,38 +6429,14 @@
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>
       <c r="O12" s="32"/>
-      <c r="Q12" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="10">
-        <f t="shared" ref="R12:R26" si="4">IF(M12="-",1,Q12)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="10">
-        <f t="shared" ref="T12:T26" si="5">IF(L12="-",0,S12)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="9">
-        <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V12" s="9">
-        <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V12)</f>
-        <v>+III</v>
-      </c>
-      <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X26" si="6">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="12"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
@@ -6933,38 +6453,14 @@
       <c r="M13" s="10"/>
       <c r="N13" s="11"/>
       <c r="O13" s="32"/>
-      <c r="Q13" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="9">
-        <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V13" s="9">
-        <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V13)</f>
-        <v>+III</v>
-      </c>
-      <c r="X13" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="12"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -6981,38 +6477,14 @@
       <c r="M14" s="10"/>
       <c r="N14" s="11"/>
       <c r="O14" s="32"/>
-      <c r="Q14" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="9">
-        <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V14" s="9">
-        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V14)</f>
-        <v>+III</v>
-      </c>
-      <c r="X14" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="12"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
@@ -7029,38 +6501,14 @@
       <c r="M15" s="10"/>
       <c r="N15" s="11"/>
       <c r="O15" s="32"/>
-      <c r="Q15" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R15" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S15" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="9">
-        <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V15" s="9">
-        <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V15)</f>
-        <v>+III</v>
-      </c>
-      <c r="X15" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="12"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
@@ -7077,38 +6525,14 @@
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
       <c r="O16" s="32"/>
-      <c r="Q16" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R16" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S16" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="9">
-        <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V16" s="9">
-        <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V16)</f>
-        <v>+III</v>
-      </c>
-      <c r="X16" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="12"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -7125,38 +6549,14 @@
       <c r="M17" s="10"/>
       <c r="N17" s="11"/>
       <c r="O17" s="32"/>
-      <c r="Q17" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S17" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="9">
-        <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V17" s="9">
-        <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V17)</f>
-        <v>+III</v>
-      </c>
-      <c r="X17" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="12"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
@@ -7173,38 +6573,14 @@
       <c r="M18" s="10"/>
       <c r="N18" s="11"/>
       <c r="O18" s="32"/>
-      <c r="Q18" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="9">
-        <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V18" s="9">
-        <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V18)</f>
-        <v>+III</v>
-      </c>
-      <c r="X18" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="12"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -7221,38 +6597,14 @@
       <c r="M19" s="10"/>
       <c r="N19" s="11"/>
       <c r="O19" s="32"/>
-      <c r="Q19" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="9">
-        <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V19" s="9">
-        <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V19)</f>
-        <v>+III</v>
-      </c>
-      <c r="X19" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="12"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -7269,38 +6621,14 @@
       <c r="M20" s="10"/>
       <c r="N20" s="11"/>
       <c r="O20" s="32"/>
-      <c r="Q20" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="9">
-        <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V20" s="9">
-        <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V20)</f>
-        <v>+III</v>
-      </c>
-      <c r="X20" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="12"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -7317,38 +6645,14 @@
       <c r="M21" s="10"/>
       <c r="N21" s="11"/>
       <c r="O21" s="32"/>
-      <c r="Q21" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R21" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="9">
-        <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V21" s="9">
-        <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V21)</f>
-        <v>+III</v>
-      </c>
-      <c r="X21" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="12"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
@@ -7365,38 +6669,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="11"/>
       <c r="O22" s="32"/>
-      <c r="Q22" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R22" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="9">
-        <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V22" s="9">
-        <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V22)</f>
-        <v>+III</v>
-      </c>
-      <c r="X22" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="12"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -7413,38 +6693,14 @@
       <c r="M23" s="10"/>
       <c r="N23" s="11"/>
       <c r="O23" s="32"/>
-      <c r="Q23" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R23" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S23" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="9">
-        <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V23" s="9">
-        <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V23)</f>
-        <v>+III</v>
-      </c>
-      <c r="X23" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="12"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
@@ -7461,38 +6717,14 @@
       <c r="M24" s="10"/>
       <c r="N24" s="11"/>
       <c r="O24" s="32"/>
-      <c r="Q24" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R24" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="9">
-        <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V24" s="9">
-        <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W24" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V24)</f>
-        <v>+III</v>
-      </c>
-      <c r="X24" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="12"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -7509,38 +6741,14 @@
       <c r="M25" s="10"/>
       <c r="N25" s="11"/>
       <c r="O25" s="32"/>
-      <c r="Q25" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R25" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="9">
-        <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V25" s="9">
-        <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W25" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V25)</f>
-        <v>+III</v>
-      </c>
-      <c r="X25" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="12"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
@@ -7557,38 +6765,14 @@
       <c r="M26" s="10"/>
       <c r="N26" s="11"/>
       <c r="O26" s="32"/>
-      <c r="Q26" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="9">
-        <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="V26" s="9">
-        <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W26" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V26)</f>
-        <v>+III</v>
-      </c>
-      <c r="X26" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="12"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
@@ -7809,7 +6993,7 @@
   <dimension ref="B2:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7970,15 +7154,15 @@
         <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M69" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N69" si="1">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O69" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -7986,11 +7170,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="9" t="str">
@@ -8013,38 +7197,14 @@
       <c r="I12" s="26"/>
       <c r="J12" s="10"/>
       <c r="K12" s="32"/>
-      <c r="M12" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <f t="shared" ref="P12:P69" si="3">IF(J12="-",0,O12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>+III</v>
-      </c>
-      <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T69" si="4">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="12"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
@@ -8057,38 +7217,14 @@
       <c r="I13" s="26"/>
       <c r="J13" s="10"/>
       <c r="K13" s="32"/>
-      <c r="M13" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>+III</v>
-      </c>
-      <c r="T13" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="12"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -8101,38 +7237,14 @@
       <c r="I14" s="26"/>
       <c r="J14" s="10"/>
       <c r="K14" s="32"/>
-      <c r="M14" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>+III</v>
-      </c>
-      <c r="T14" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
@@ -8145,38 +7257,14 @@
       <c r="I15" s="26"/>
       <c r="J15" s="10"/>
       <c r="K15" s="32"/>
-      <c r="M15" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="12"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
@@ -8189,38 +7277,14 @@
       <c r="I16" s="26"/>
       <c r="J16" s="10"/>
       <c r="K16" s="32"/>
-      <c r="M16" s="31">
-        <f t="shared" ref="M16:M62" si="5">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" ref="N16:N62" si="6">IF(J16="-",1,M16)</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" ref="O16:O62" si="7">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" ref="P16:P62" si="8">IF(J16="-",0,O16)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
-      </c>
-      <c r="T16" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="12"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -8233,38 +7297,14 @@
       <c r="I17" s="26"/>
       <c r="J17" s="10"/>
       <c r="K17" s="32"/>
-      <c r="M17" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>+III</v>
-      </c>
-      <c r="T17" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="12"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
@@ -8277,38 +7317,14 @@
       <c r="I18" s="26"/>
       <c r="J18" s="10"/>
       <c r="K18" s="32"/>
-      <c r="M18" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
-      </c>
-      <c r="T18" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="12"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -8321,38 +7337,14 @@
       <c r="I19" s="26"/>
       <c r="J19" s="10"/>
       <c r="K19" s="32"/>
-      <c r="M19" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
-        <v>+III</v>
-      </c>
-      <c r="T19" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="12"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -8365,38 +7357,14 @@
       <c r="I20" s="26"/>
       <c r="J20" s="10"/>
       <c r="K20" s="32"/>
-      <c r="M20" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>+III</v>
-      </c>
-      <c r="T20" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M20" s="31"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="12"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -8409,38 +7377,14 @@
       <c r="I21" s="26"/>
       <c r="J21" s="10"/>
       <c r="K21" s="32"/>
-      <c r="M21" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
-        <v>+III</v>
-      </c>
-      <c r="T21" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M21" s="31"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="12"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
@@ -8453,38 +7397,14 @@
       <c r="I22" s="26"/>
       <c r="J22" s="10"/>
       <c r="K22" s="32"/>
-      <c r="M22" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>+III</v>
-      </c>
-      <c r="T22" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="12"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -8497,38 +7417,14 @@
       <c r="I23" s="26"/>
       <c r="J23" s="10"/>
       <c r="K23" s="32"/>
-      <c r="M23" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N23" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R23" s="9">
-        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
-        <v>+III</v>
-      </c>
-      <c r="T23" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="12"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
@@ -8541,38 +7437,14 @@
       <c r="I24" s="26"/>
       <c r="J24" s="10"/>
       <c r="K24" s="32"/>
-      <c r="M24" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N24" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R24" s="9">
-        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S24" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
-        <v>+III</v>
-      </c>
-      <c r="T24" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M24" s="31"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="12"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -8585,38 +7457,14 @@
       <c r="I25" s="26"/>
       <c r="J25" s="10"/>
       <c r="K25" s="32"/>
-      <c r="M25" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R25" s="9">
-        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S25" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R25)</f>
-        <v>+III</v>
-      </c>
-      <c r="T25" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M25" s="31"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="12"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
@@ -8629,38 +7477,14 @@
       <c r="I26" s="26"/>
       <c r="J26" s="10"/>
       <c r="K26" s="32"/>
-      <c r="M26" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R26" s="9">
-        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R26)</f>
-        <v>+III</v>
-      </c>
-      <c r="T26" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M26" s="31"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="12"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
@@ -8673,38 +7497,14 @@
       <c r="I27" s="26"/>
       <c r="J27" s="10"/>
       <c r="K27" s="32"/>
-      <c r="M27" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R27" s="9">
-        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S27" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R27)</f>
-        <v>+III</v>
-      </c>
-      <c r="T27" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M27" s="31"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="12"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
@@ -8717,38 +7517,14 @@
       <c r="I28" s="26"/>
       <c r="J28" s="10"/>
       <c r="K28" s="32"/>
-      <c r="M28" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R28" s="9">
-        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S28" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R28)</f>
-        <v>+III</v>
-      </c>
-      <c r="T28" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M28" s="31"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
@@ -8761,38 +7537,14 @@
       <c r="I29" s="26"/>
       <c r="J29" s="10"/>
       <c r="K29" s="32"/>
-      <c r="M29" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
-        <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R29" s="9">
-        <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S29" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R29)</f>
-        <v>+III</v>
-      </c>
-      <c r="T29" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M29" s="31"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="12"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
@@ -8805,38 +7557,14 @@
       <c r="I30" s="26"/>
       <c r="J30" s="10"/>
       <c r="K30" s="32"/>
-      <c r="M30" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N30" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O30" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="9">
-        <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R30" s="9">
-        <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S30" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R30)</f>
-        <v>+III</v>
-      </c>
-      <c r="T30" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M30" s="31"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="12"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
@@ -8849,38 +7577,14 @@
       <c r="I31" s="26"/>
       <c r="J31" s="10"/>
       <c r="K31" s="32"/>
-      <c r="M31" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N31" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O31" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="9">
-        <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R31" s="9">
-        <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S31" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R31)</f>
-        <v>+III</v>
-      </c>
-      <c r="T31" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M31" s="31"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="12"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
@@ -8893,38 +7597,14 @@
       <c r="I32" s="26"/>
       <c r="J32" s="10"/>
       <c r="K32" s="32"/>
-      <c r="M32" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N32" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O32" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="9">
-        <f t="array" ref="Q32">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J32,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R32" s="9">
-        <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S32" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R32)</f>
-        <v>+III</v>
-      </c>
-      <c r="T32" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M32" s="31"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="12"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
@@ -8937,38 +7617,14 @@
       <c r="I33" s="26"/>
       <c r="J33" s="10"/>
       <c r="K33" s="32"/>
-      <c r="M33" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N33" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O33" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="9">
-        <f t="array" ref="Q33">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J33,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R33" s="9">
-        <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S33" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R33)</f>
-        <v>+III</v>
-      </c>
-      <c r="T33" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M33" s="31"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="12"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
@@ -8981,38 +7637,14 @@
       <c r="I34" s="26"/>
       <c r="J34" s="10"/>
       <c r="K34" s="32"/>
-      <c r="M34" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N34" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O34" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9">
-        <f t="array" ref="Q34">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J34,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R34" s="9">
-        <f>IFERROR(MATCH($Q34,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S34" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R34)</f>
-        <v>+III</v>
-      </c>
-      <c r="T34" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M34" s="31"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="12"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
@@ -9025,38 +7657,14 @@
       <c r="I35" s="26"/>
       <c r="J35" s="10"/>
       <c r="K35" s="32"/>
-      <c r="M35" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N35" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O35" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="9">
-        <f t="array" ref="Q35">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J35,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R35" s="9">
-        <f>IFERROR(MATCH($Q35,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S35" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R35)</f>
-        <v>+III</v>
-      </c>
-      <c r="T35" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M35" s="31"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="12"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
@@ -9069,38 +7677,14 @@
       <c r="I36" s="26"/>
       <c r="J36" s="10"/>
       <c r="K36" s="32"/>
-      <c r="M36" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N36" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O36" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="9">
-        <f t="array" ref="Q36">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J36,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R36" s="9">
-        <f>IFERROR(MATCH($Q36,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S36" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R36)</f>
-        <v>+III</v>
-      </c>
-      <c r="T36" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M36" s="31"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="12"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
@@ -9113,38 +7697,14 @@
       <c r="I37" s="26"/>
       <c r="J37" s="10"/>
       <c r="K37" s="32"/>
-      <c r="M37" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N37" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O37" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="9">
-        <f t="array" ref="Q37">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J37,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R37" s="9">
-        <f>IFERROR(MATCH($Q37,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S37" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R37)</f>
-        <v>+III</v>
-      </c>
-      <c r="T37" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M37" s="31"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="12"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
@@ -9157,38 +7717,14 @@
       <c r="I38" s="26"/>
       <c r="J38" s="10"/>
       <c r="K38" s="32"/>
-      <c r="M38" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N38" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O38" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="9">
-        <f t="array" ref="Q38">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J38,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R38" s="9">
-        <f>IFERROR(MATCH($Q38,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S38" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R38)</f>
-        <v>+III</v>
-      </c>
-      <c r="T38" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M38" s="31"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="12"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
@@ -9201,38 +7737,14 @@
       <c r="I39" s="26"/>
       <c r="J39" s="10"/>
       <c r="K39" s="32"/>
-      <c r="M39" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N39" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O39" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="9">
-        <f t="array" ref="Q39">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J39,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R39" s="9">
-        <f>IFERROR(MATCH($Q39,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S39" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R39)</f>
-        <v>+III</v>
-      </c>
-      <c r="T39" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M39" s="31"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="12"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
@@ -9245,38 +7757,14 @@
       <c r="I40" s="26"/>
       <c r="J40" s="10"/>
       <c r="K40" s="32"/>
-      <c r="M40" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N40" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O40" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="9">
-        <f t="array" ref="Q40">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J40,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R40" s="9">
-        <f>IFERROR(MATCH($Q40,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S40" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R40)</f>
-        <v>+III</v>
-      </c>
-      <c r="T40" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M40" s="31"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="12"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
@@ -9289,38 +7777,14 @@
       <c r="I41" s="26"/>
       <c r="J41" s="10"/>
       <c r="K41" s="32"/>
-      <c r="M41" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N41" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O41" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="9">
-        <f t="array" ref="Q41">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J41,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R41" s="9">
-        <f>IFERROR(MATCH($Q41,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S41" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R41)</f>
-        <v>+III</v>
-      </c>
-      <c r="T41" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M41" s="31"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="12"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
@@ -9333,38 +7797,14 @@
       <c r="I42" s="26"/>
       <c r="J42" s="10"/>
       <c r="K42" s="32"/>
-      <c r="M42" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N42" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O42" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="9">
-        <f t="array" ref="Q42">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J42,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R42" s="9">
-        <f>IFERROR(MATCH($Q42,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S42" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R42)</f>
-        <v>+III</v>
-      </c>
-      <c r="T42" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M42" s="31"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="12"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
@@ -9377,38 +7817,14 @@
       <c r="I43" s="26"/>
       <c r="J43" s="10"/>
       <c r="K43" s="32"/>
-      <c r="M43" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N43" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O43" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="9">
-        <f t="array" ref="Q43">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J43,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R43" s="9">
-        <f>IFERROR(MATCH($Q43,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S43" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R43)</f>
-        <v>+III</v>
-      </c>
-      <c r="T43" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M43" s="31"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="12"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
@@ -9421,38 +7837,14 @@
       <c r="I44" s="26"/>
       <c r="J44" s="10"/>
       <c r="K44" s="32"/>
-      <c r="M44" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N44" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O44" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="9">
-        <f t="array" ref="Q44">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J44,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R44" s="9">
-        <f>IFERROR(MATCH($Q44,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S44" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R44)</f>
-        <v>+III</v>
-      </c>
-      <c r="T44" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M44" s="31"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="12"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
@@ -9465,38 +7857,14 @@
       <c r="I45" s="26"/>
       <c r="J45" s="10"/>
       <c r="K45" s="32"/>
-      <c r="M45" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N45" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O45" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="9">
-        <f t="array" ref="Q45">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J45,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R45" s="9">
-        <f>IFERROR(MATCH($Q45,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S45" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R45)</f>
-        <v>+III</v>
-      </c>
-      <c r="T45" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M45" s="31"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="12"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
@@ -9509,38 +7877,14 @@
       <c r="I46" s="26"/>
       <c r="J46" s="10"/>
       <c r="K46" s="32"/>
-      <c r="M46" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N46" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O46" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="9">
-        <f t="array" ref="Q46">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J46,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R46" s="9">
-        <f>IFERROR(MATCH($Q46,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S46" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R46)</f>
-        <v>+III</v>
-      </c>
-      <c r="T46" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M46" s="31"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="12"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
@@ -9553,38 +7897,14 @@
       <c r="I47" s="26"/>
       <c r="J47" s="10"/>
       <c r="K47" s="32"/>
-      <c r="M47" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N47" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O47" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="9">
-        <f t="array" ref="Q47">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J47,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R47" s="9">
-        <f>IFERROR(MATCH($Q47,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S47" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R47)</f>
-        <v>+III</v>
-      </c>
-      <c r="T47" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M47" s="31"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="12"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
@@ -9597,38 +7917,14 @@
       <c r="I48" s="26"/>
       <c r="J48" s="10"/>
       <c r="K48" s="32"/>
-      <c r="M48" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N48" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O48" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="9">
-        <f t="array" ref="Q48">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J48,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R48" s="9">
-        <f>IFERROR(MATCH($Q48,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S48" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R48)</f>
-        <v>+III</v>
-      </c>
-      <c r="T48" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M48" s="31"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="12"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
@@ -9641,38 +7937,14 @@
       <c r="I49" s="26"/>
       <c r="J49" s="10"/>
       <c r="K49" s="32"/>
-      <c r="M49" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N49" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O49" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="9">
-        <f t="array" ref="Q49">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J49,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R49" s="9">
-        <f>IFERROR(MATCH($Q49,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S49" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R49)</f>
-        <v>+III</v>
-      </c>
-      <c r="T49" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M49" s="31"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="12"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
@@ -9685,38 +7957,14 @@
       <c r="I50" s="26"/>
       <c r="J50" s="10"/>
       <c r="K50" s="32"/>
-      <c r="M50" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N50" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O50" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="9">
-        <f t="array" ref="Q50">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J50,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R50" s="9">
-        <f>IFERROR(MATCH($Q50,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S50" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R50)</f>
-        <v>+III</v>
-      </c>
-      <c r="T50" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M50" s="31"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="12"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
@@ -9729,38 +7977,14 @@
       <c r="I51" s="26"/>
       <c r="J51" s="10"/>
       <c r="K51" s="32"/>
-      <c r="M51" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N51" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O51" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="9">
-        <f t="array" ref="Q51">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J51,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R51" s="9">
-        <f>IFERROR(MATCH($Q51,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S51" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R51)</f>
-        <v>+III</v>
-      </c>
-      <c r="T51" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M51" s="31"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="12"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
@@ -9773,38 +7997,14 @@
       <c r="I52" s="26"/>
       <c r="J52" s="10"/>
       <c r="K52" s="32"/>
-      <c r="M52" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N52" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O52" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="9">
-        <f t="array" ref="Q52">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J52,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R52" s="9">
-        <f>IFERROR(MATCH($Q52,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S52" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R52)</f>
-        <v>+III</v>
-      </c>
-      <c r="T52" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M52" s="31"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="12"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
@@ -9817,38 +8017,14 @@
       <c r="I53" s="26"/>
       <c r="J53" s="10"/>
       <c r="K53" s="32"/>
-      <c r="M53" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N53" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O53" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="9">
-        <f t="array" ref="Q53">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J53,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R53" s="9">
-        <f>IFERROR(MATCH($Q53,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S53" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R53)</f>
-        <v>+III</v>
-      </c>
-      <c r="T53" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M53" s="31"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="12"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
@@ -9861,38 +8037,14 @@
       <c r="I54" s="26"/>
       <c r="J54" s="10"/>
       <c r="K54" s="32"/>
-      <c r="M54" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N54" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O54" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="9">
-        <f t="array" ref="Q54">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J54,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R54" s="9">
-        <f>IFERROR(MATCH($Q54,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S54" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R54)</f>
-        <v>+III</v>
-      </c>
-      <c r="T54" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M54" s="31"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="12"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
@@ -9905,38 +8057,14 @@
       <c r="I55" s="26"/>
       <c r="J55" s="10"/>
       <c r="K55" s="32"/>
-      <c r="M55" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N55" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O55" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="9">
-        <f t="array" ref="Q55">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J55,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R55" s="9">
-        <f>IFERROR(MATCH($Q55,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S55" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R55)</f>
-        <v>+III</v>
-      </c>
-      <c r="T55" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M55" s="31"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="12"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
@@ -9949,38 +8077,14 @@
       <c r="I56" s="26"/>
       <c r="J56" s="10"/>
       <c r="K56" s="32"/>
-      <c r="M56" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N56" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O56" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="9">
-        <f t="array" ref="Q56">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J56,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R56" s="9">
-        <f>IFERROR(MATCH($Q56,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S56" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R56)</f>
-        <v>+III</v>
-      </c>
-      <c r="T56" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M56" s="31"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="12"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
@@ -9993,38 +8097,14 @@
       <c r="I57" s="26"/>
       <c r="J57" s="10"/>
       <c r="K57" s="32"/>
-      <c r="M57" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N57" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O57" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="9">
-        <f t="array" ref="Q57">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J57,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R57" s="9">
-        <f>IFERROR(MATCH($Q57,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S57" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R57)</f>
-        <v>+III</v>
-      </c>
-      <c r="T57" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M57" s="31"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="12"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
@@ -10037,38 +8117,14 @@
       <c r="I58" s="26"/>
       <c r="J58" s="10"/>
       <c r="K58" s="32"/>
-      <c r="M58" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N58" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O58" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="9">
-        <f t="array" ref="Q58">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J58,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R58" s="9">
-        <f>IFERROR(MATCH($Q58,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S58" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R58)</f>
-        <v>+III</v>
-      </c>
-      <c r="T58" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M58" s="31"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="12"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
@@ -10081,38 +8137,14 @@
       <c r="I59" s="26"/>
       <c r="J59" s="10"/>
       <c r="K59" s="32"/>
-      <c r="M59" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N59" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O59" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="9">
-        <f t="array" ref="Q59">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J59,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R59" s="9">
-        <f>IFERROR(MATCH($Q59,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S59" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R59)</f>
-        <v>+III</v>
-      </c>
-      <c r="T59" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M59" s="31"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="12"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
@@ -10125,38 +8157,14 @@
       <c r="I60" s="26"/>
       <c r="J60" s="10"/>
       <c r="K60" s="32"/>
-      <c r="M60" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N60" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O60" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="9">
-        <f t="array" ref="Q60">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J60,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R60" s="9">
-        <f>IFERROR(MATCH($Q60,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S60" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R60)</f>
-        <v>+III</v>
-      </c>
-      <c r="T60" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M60" s="31"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="12"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
@@ -10169,38 +8177,14 @@
       <c r="I61" s="26"/>
       <c r="J61" s="10"/>
       <c r="K61" s="32"/>
-      <c r="M61" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N61" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O61" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="9">
-        <f t="array" ref="Q61">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J61,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R61" s="9">
-        <f>IFERROR(MATCH($Q61,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S61" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R61)</f>
-        <v>+III</v>
-      </c>
-      <c r="T61" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M61" s="31"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="12"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
@@ -10213,38 +8197,14 @@
       <c r="I62" s="26"/>
       <c r="J62" s="10"/>
       <c r="K62" s="32"/>
-      <c r="M62" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N62" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O62" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="9">
-        <f t="array" ref="Q62">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J62,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R62" s="9">
-        <f>IFERROR(MATCH($Q62,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S62" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R62)</f>
-        <v>+III</v>
-      </c>
-      <c r="T62" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M62" s="31"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="12"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
@@ -10257,38 +8217,14 @@
       <c r="I63" s="26"/>
       <c r="J63" s="10"/>
       <c r="K63" s="32"/>
-      <c r="M63" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N63" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O63" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="9">
-        <f t="array" ref="Q63">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J63,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R63" s="9">
-        <f>IFERROR(MATCH($Q63,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S63" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R63)</f>
-        <v>+III</v>
-      </c>
-      <c r="T63" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M63" s="31"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="12"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
@@ -10301,38 +8237,14 @@
       <c r="I64" s="26"/>
       <c r="J64" s="10"/>
       <c r="K64" s="32"/>
-      <c r="M64" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N64" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O64" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="9">
-        <f t="array" ref="Q64">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J64,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R64" s="9">
-        <f>IFERROR(MATCH($Q64,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S64" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R64)</f>
-        <v>+III</v>
-      </c>
-      <c r="T64" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M64" s="31"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="12"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
@@ -10345,38 +8257,14 @@
       <c r="I65" s="26"/>
       <c r="J65" s="10"/>
       <c r="K65" s="32"/>
-      <c r="M65" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N65" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O65" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="9">
-        <f t="array" ref="Q65">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J65,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R65" s="9">
-        <f>IFERROR(MATCH($Q65,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S65" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R65)</f>
-        <v>+III</v>
-      </c>
-      <c r="T65" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M65" s="31"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="12"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
@@ -10389,38 +8277,14 @@
       <c r="I66" s="26"/>
       <c r="J66" s="10"/>
       <c r="K66" s="32"/>
-      <c r="M66" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N66" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O66" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="9">
-        <f t="array" ref="Q66">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J66,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R66" s="9">
-        <f>IFERROR(MATCH($Q66,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S66" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R66)</f>
-        <v>+III</v>
-      </c>
-      <c r="T66" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M66" s="31"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="12"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
@@ -10433,38 +8297,14 @@
       <c r="I67" s="26"/>
       <c r="J67" s="10"/>
       <c r="K67" s="32"/>
-      <c r="M67" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N67" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O67" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="9">
-        <f t="array" ref="Q67">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J67,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R67" s="9">
-        <f>IFERROR(MATCH($Q67,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S67" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R67)</f>
-        <v>+III</v>
-      </c>
-      <c r="T67" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M67" s="31"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="12"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
@@ -10477,38 +8317,14 @@
       <c r="I68" s="26"/>
       <c r="J68" s="10"/>
       <c r="K68" s="32"/>
-      <c r="M68" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N68" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O68" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="9">
-        <f t="array" ref="Q68">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J68,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R68" s="9">
-        <f>IFERROR(MATCH($Q68,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S68" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R68)</f>
-        <v>+III</v>
-      </c>
-      <c r="T68" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M68" s="31"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="12"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
@@ -10521,38 +8337,14 @@
       <c r="I69" s="26"/>
       <c r="J69" s="10"/>
       <c r="K69" s="32"/>
-      <c r="M69" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N69" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O69" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="9">
-        <f t="array" ref="Q69">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J69,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R69" s="9">
-        <f>IFERROR(MATCH($Q69,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S69" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R69)</f>
-        <v>+III</v>
-      </c>
-      <c r="T69" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M69" s="31"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="12"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
@@ -10716,8 +8508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA3C0E-3A5C-4A61-A32F-6BC05AD0EB33}">
   <dimension ref="B2:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10733,7 +8525,7 @@
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10784,8 +8576,8 @@
         <v>56</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(1-PRODUCT(N50:N50)&gt;MAX(P50:P50),"Ja","Nee")</f>
-        <v>Nee</v>
+        <f>IF(1-PRODUCT(N11:N50)&gt;MAX(P11:P50),"Ja","Nee")</f>
+        <v>Ja</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10882,27 +8674,27 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M48" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>0.99999997659999995</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N48" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="2">IF(J11="-",1,M11)</f>
         <v>0.99999997659999995</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O48" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P48" si="4">IF(J11="-",0,O11)</f>
+        <f t="shared" ref="P11" si="4">IF(J11="-",0,O11)</f>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="9" t="str">
@@ -10948,27 +8740,27 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M12:M48" si="6">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
         <v>0.99999997659999995</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N12:N48" si="7">IF(J12="-",1,M12)</f>
         <v>0.99999997659999995</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O12:O48" si="8">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P12:P48" si="9">IF(J12="-",0,O12)</f>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S12" s="9" t="str">
@@ -11014,27 +8806,27 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S13" s="9" t="str">
@@ -11080,27 +8872,27 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S14" s="9" t="str">
@@ -11146,27 +8938,27 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S15" s="9" t="str">
@@ -11212,27 +9004,27 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S16" s="9" t="str">
@@ -11278,27 +9070,27 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S17" s="9" t="str">
@@ -11344,27 +9136,27 @@
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S18" s="9" t="str">
@@ -11410,27 +9202,27 @@
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S19" s="9" t="str">
@@ -11476,27 +9268,27 @@
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q20" s="9">
-        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S20" s="9" t="str">
@@ -11542,27 +9334,27 @@
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q21" s="9">
-        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S21" s="9" t="str">
@@ -11608,27 +9400,27 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q22" s="9">
-        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S22" s="9" t="str">
@@ -11674,27 +9466,27 @@
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q23" s="9">
-        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R23" s="9">
-        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S23" s="9" t="str">
@@ -11740,27 +9532,27 @@
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q24" s="9">
-        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R24" s="9">
-        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S24" s="9" t="str">
@@ -11806,27 +9598,27 @@
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P25" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q25" s="9">
-        <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R25" s="9">
-        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S25" s="9" t="str">
@@ -11872,27 +9664,27 @@
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N26" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P26" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q26" s="9">
-        <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R26" s="9">
-        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S26" s="9" t="str">
@@ -11938,27 +9730,27 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q27" s="9">
-        <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R27" s="9">
-        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S27" s="9" t="str">
@@ -12004,27 +9796,27 @@
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P28" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q28" s="9">
-        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R28" s="9">
-        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S28" s="9" t="str">
@@ -12070,27 +9862,27 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N29" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O29" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P29" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q29" s="9">
-        <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R29" s="9">
-        <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S29" s="9" t="str">
@@ -12136,27 +9928,27 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O30" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P30" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q30" s="9">
-        <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R30" s="9">
-        <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S30" s="9" t="str">
@@ -12202,27 +9994,27 @@
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N31" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O31" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P31" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q31" s="9">
-        <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R31" s="9">
-        <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S31" s="9" t="str">
@@ -12268,27 +10060,27 @@
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N32" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O32" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q32" s="9">
-        <f t="array" ref="Q32">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J32,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q32">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J32,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R32" s="9">
-        <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S32" s="9" t="str">
@@ -12334,27 +10126,27 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N33" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P33" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q33" s="9">
-        <f t="array" ref="Q33">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J33,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q33">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J33,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R33" s="9">
-        <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S33" s="9" t="str">
@@ -12400,27 +10192,27 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O34" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P34" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q34" s="9">
-        <f t="array" ref="Q34">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J34,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q34">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J34,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R34" s="9">
-        <f>IFERROR(MATCH($Q34,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q34,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S34" s="9" t="str">
@@ -12466,27 +10258,27 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N35" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P35" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q35" s="9">
-        <f t="array" ref="Q35">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J35,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q35">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J35,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R35" s="9">
-        <f>IFERROR(MATCH($Q35,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q35,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S35" s="9" t="str">
@@ -12532,27 +10324,27 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N36" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O36" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q36" s="9">
-        <f t="array" ref="Q36">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J36,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q36">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J36,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R36" s="9">
-        <f>IFERROR(MATCH($Q36,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q36,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S36" s="9" t="str">
@@ -12598,27 +10390,27 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N37" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O37" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P37" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q37" s="9">
-        <f t="array" ref="Q37">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J37,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q37">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J37,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R37" s="9">
-        <f>IFERROR(MATCH($Q37,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q37,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S37" s="9" t="str">
@@ -12664,27 +10456,27 @@
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N38" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P38" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q38" s="9">
-        <f t="array" ref="Q38">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J38,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q38">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J38,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R38" s="9">
-        <f>IFERROR(MATCH($Q38,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q38,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S38" s="9" t="str">
@@ -12730,27 +10522,27 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N39" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P39" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q39" s="9">
-        <f t="array" ref="Q39">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J39,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q39">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J39,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R39" s="9">
-        <f>IFERROR(MATCH($Q39,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q39,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S39" s="9" t="str">
@@ -12796,27 +10588,27 @@
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P40" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q40" s="9">
-        <f t="array" ref="Q40">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J40,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q40">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J40,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R40" s="9">
-        <f>IFERROR(MATCH($Q40,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q40,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S40" s="9" t="str">
@@ -12862,27 +10654,27 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N41" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P41" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q41" s="9">
-        <f t="array" ref="Q41">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J41,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q41">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J41,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R41" s="9">
-        <f>IFERROR(MATCH($Q41,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q41,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S41" s="9" t="str">
@@ -12928,27 +10720,27 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N42" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O42" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P42" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q42" s="9">
-        <f t="array" ref="Q42">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J42,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q42">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J42,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R42" s="9">
-        <f>IFERROR(MATCH($Q42,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q42,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S42" s="9" t="str">
@@ -12994,27 +10786,27 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N43" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O43" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P43" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q43" s="9">
-        <f t="array" ref="Q43">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J43,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q43">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J43,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R43" s="9">
-        <f>IFERROR(MATCH($Q43,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q43,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S43" s="9" t="str">
@@ -13060,27 +10852,27 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N44" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O44" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P44" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q44" s="9">
-        <f t="array" ref="Q44">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J44,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q44">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J44,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R44" s="9">
-        <f>IFERROR(MATCH($Q44,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q44,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S44" s="9" t="str">
@@ -13126,27 +10918,27 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N45" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O45" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P45" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q45" s="9">
-        <f t="array" ref="Q45">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J45,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q45">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J45,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R45" s="9">
-        <f>IFERROR(MATCH($Q45,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q45,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S45" s="9" t="str">
@@ -13192,27 +10984,27 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N46" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O46" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P46" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q46" s="9">
-        <f t="array" ref="Q46">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J46,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q46">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J46,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R46" s="9">
-        <f>IFERROR(MATCH($Q46,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q46,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S46" s="9" t="str">
@@ -13258,27 +11050,27 @@
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N47" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O47" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P47" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q47" s="9">
-        <f t="array" ref="Q47">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J47,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q47">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J47,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R47" s="9">
-        <f>IFERROR(MATCH($Q47,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q47,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S47" s="9" t="str">
@@ -13324,27 +11116,27 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="N48" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99999997659999995</v>
       </c>
       <c r="O48" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P48" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q48" s="9">
-        <f t="array" ref="Q48">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J48,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q48">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J48,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R48" s="9">
-        <f>IFERROR(MATCH($Q48,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q48,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S48" s="9" t="str">
@@ -13594,7 +11386,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13755,15 +11547,15 @@
         <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M12" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="1">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -13771,11 +11563,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="9" t="str">
@@ -13798,38 +11590,14 @@
       <c r="I12" s="26"/>
       <c r="J12" s="10"/>
       <c r="K12" s="32"/>
-      <c r="M12" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="3">IF(J12="-",0,O12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>+III</v>
-      </c>
-      <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T28" si="4">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="12"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
@@ -13842,38 +11610,14 @@
       <c r="I13" s="26"/>
       <c r="J13" s="10"/>
       <c r="K13" s="32"/>
-      <c r="M13" s="31">
-        <f t="shared" ref="M13:M28" si="5">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
-        <v>1</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" ref="N13:N28" si="6">IF(J13="-",1,M13)</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" ref="O13:O28" si="7">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>+III</v>
-      </c>
-      <c r="T13" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="12"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -13886,38 +11630,14 @@
       <c r="I14" s="26"/>
       <c r="J14" s="10"/>
       <c r="K14" s="32"/>
-      <c r="M14" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" ref="P14:P28" si="8">IF(J14="-",0,O14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>+III</v>
-      </c>
-      <c r="T14" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
@@ -13930,38 +11650,14 @@
       <c r="I15" s="26"/>
       <c r="J15" s="10"/>
       <c r="K15" s="32"/>
-      <c r="M15" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="12"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
@@ -13974,38 +11670,14 @@
       <c r="I16" s="26"/>
       <c r="J16" s="10"/>
       <c r="K16" s="32"/>
-      <c r="M16" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
-      </c>
-      <c r="T16" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="12"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -14018,38 +11690,14 @@
       <c r="I17" s="26"/>
       <c r="J17" s="10"/>
       <c r="K17" s="32"/>
-      <c r="M17" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>+III</v>
-      </c>
-      <c r="T17" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="12"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
@@ -14062,38 +11710,14 @@
       <c r="I18" s="26"/>
       <c r="J18" s="10"/>
       <c r="K18" s="32"/>
-      <c r="M18" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
-      </c>
-      <c r="T18" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="12"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -14106,38 +11730,14 @@
       <c r="I19" s="26"/>
       <c r="J19" s="10"/>
       <c r="K19" s="32"/>
-      <c r="M19" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
-        <v>+III</v>
-      </c>
-      <c r="T19" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="12"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -14150,38 +11750,14 @@
       <c r="I20" s="26"/>
       <c r="J20" s="10"/>
       <c r="K20" s="32"/>
-      <c r="M20" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>+III</v>
-      </c>
-      <c r="T20" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M20" s="31"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="12"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -14194,38 +11770,14 @@
       <c r="I21" s="26"/>
       <c r="J21" s="10"/>
       <c r="K21" s="32"/>
-      <c r="M21" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
-        <v>+III</v>
-      </c>
-      <c r="T21" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M21" s="31"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="12"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
@@ -14238,38 +11790,14 @@
       <c r="I22" s="26"/>
       <c r="J22" s="10"/>
       <c r="K22" s="32"/>
-      <c r="M22" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>+III</v>
-      </c>
-      <c r="T22" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="12"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -14282,38 +11810,14 @@
       <c r="I23" s="26"/>
       <c r="J23" s="10"/>
       <c r="K23" s="32"/>
-      <c r="M23" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N23" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R23" s="9">
-        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
-        <v>+III</v>
-      </c>
-      <c r="T23" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="12"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
@@ -14326,38 +11830,14 @@
       <c r="I24" s="26"/>
       <c r="J24" s="10"/>
       <c r="K24" s="32"/>
-      <c r="M24" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N24" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R24" s="9">
-        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S24" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
-        <v>+III</v>
-      </c>
-      <c r="T24" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M24" s="31"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="12"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -14370,38 +11850,14 @@
       <c r="I25" s="26"/>
       <c r="J25" s="10"/>
       <c r="K25" s="32"/>
-      <c r="M25" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R25" s="9">
-        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S25" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R25)</f>
-        <v>+III</v>
-      </c>
-      <c r="T25" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M25" s="31"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="12"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
@@ -14414,38 +11870,14 @@
       <c r="I26" s="26"/>
       <c r="J26" s="10"/>
       <c r="K26" s="32"/>
-      <c r="M26" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R26" s="9">
-        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R26)</f>
-        <v>+III</v>
-      </c>
-      <c r="T26" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M26" s="31"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="12"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
@@ -14458,38 +11890,14 @@
       <c r="I27" s="26"/>
       <c r="J27" s="10"/>
       <c r="K27" s="32"/>
-      <c r="M27" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R27" s="9">
-        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S27" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R27)</f>
-        <v>+III</v>
-      </c>
-      <c r="T27" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M27" s="31"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="12"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
@@ -14502,38 +11910,14 @@
       <c r="I28" s="27"/>
       <c r="J28" s="15"/>
       <c r="K28" s="34"/>
-      <c r="M28" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R28" s="9">
-        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S28" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R28)</f>
-        <v>+III</v>
-      </c>
-      <c r="T28" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M28" s="31"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
@@ -14658,7 +12042,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14682,7 +12066,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -14819,15 +12203,15 @@
         <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M28" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N28" si="1">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O28" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -14835,11 +12219,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="9" t="str">
@@ -14862,38 +12246,14 @@
       <c r="I12" s="26"/>
       <c r="J12" s="10"/>
       <c r="K12" s="32"/>
-      <c r="M12" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <f t="shared" ref="P12:P28" si="3">IF(J12="-",0,O12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>+III</v>
-      </c>
-      <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T28" si="4">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="12"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
@@ -14906,38 +12266,14 @@
       <c r="I13" s="26"/>
       <c r="J13" s="10"/>
       <c r="K13" s="32"/>
-      <c r="M13" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>+III</v>
-      </c>
-      <c r="T13" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="12"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -14950,38 +12286,14 @@
       <c r="I14" s="26"/>
       <c r="J14" s="10"/>
       <c r="K14" s="32"/>
-      <c r="M14" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>+III</v>
-      </c>
-      <c r="T14" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
@@ -14994,38 +12306,14 @@
       <c r="I15" s="26"/>
       <c r="J15" s="10"/>
       <c r="K15" s="32"/>
-      <c r="M15" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="12"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
@@ -15038,38 +12326,14 @@
       <c r="I16" s="26"/>
       <c r="J16" s="10"/>
       <c r="K16" s="32"/>
-      <c r="M16" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
-      </c>
-      <c r="T16" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="12"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -15082,38 +12346,14 @@
       <c r="I17" s="26"/>
       <c r="J17" s="10"/>
       <c r="K17" s="32"/>
-      <c r="M17" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>+III</v>
-      </c>
-      <c r="T17" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="12"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
@@ -15126,38 +12366,14 @@
       <c r="I18" s="26"/>
       <c r="J18" s="10"/>
       <c r="K18" s="32"/>
-      <c r="M18" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
-      </c>
-      <c r="T18" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="12"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -15170,38 +12386,14 @@
       <c r="I19" s="26"/>
       <c r="J19" s="10"/>
       <c r="K19" s="32"/>
-      <c r="M19" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
-        <v>+III</v>
-      </c>
-      <c r="T19" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="12"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -15214,38 +12406,14 @@
       <c r="I20" s="26"/>
       <c r="J20" s="10"/>
       <c r="K20" s="32"/>
-      <c r="M20" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>+III</v>
-      </c>
-      <c r="T20" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M20" s="31"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="12"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -15258,38 +12426,14 @@
       <c r="I21" s="26"/>
       <c r="J21" s="10"/>
       <c r="K21" s="32"/>
-      <c r="M21" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
-        <v>+III</v>
-      </c>
-      <c r="T21" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M21" s="31"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="12"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
@@ -15302,38 +12446,14 @@
       <c r="I22" s="26"/>
       <c r="J22" s="10"/>
       <c r="K22" s="32"/>
-      <c r="M22" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>+III</v>
-      </c>
-      <c r="T22" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="12"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -15346,38 +12466,14 @@
       <c r="I23" s="26"/>
       <c r="J23" s="10"/>
       <c r="K23" s="32"/>
-      <c r="M23" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N23" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R23" s="9">
-        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
-        <v>+III</v>
-      </c>
-      <c r="T23" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="12"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
@@ -15390,38 +12486,14 @@
       <c r="I24" s="26"/>
       <c r="J24" s="10"/>
       <c r="K24" s="32"/>
-      <c r="M24" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N24" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R24" s="9">
-        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S24" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
-        <v>+III</v>
-      </c>
-      <c r="T24" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M24" s="31"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="12"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -15434,38 +12506,14 @@
       <c r="I25" s="26"/>
       <c r="J25" s="10"/>
       <c r="K25" s="32"/>
-      <c r="M25" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R25" s="9">
-        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S25" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R25)</f>
-        <v>+III</v>
-      </c>
-      <c r="T25" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M25" s="31"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="12"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
@@ -15478,38 +12526,14 @@
       <c r="I26" s="26"/>
       <c r="J26" s="10"/>
       <c r="K26" s="32"/>
-      <c r="M26" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R26" s="9">
-        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R26)</f>
-        <v>+III</v>
-      </c>
-      <c r="T26" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M26" s="31"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="12"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
@@ -15522,38 +12546,14 @@
       <c r="I27" s="26"/>
       <c r="J27" s="10"/>
       <c r="K27" s="32"/>
-      <c r="M27" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R27" s="9">
-        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S27" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R27)</f>
-        <v>+III</v>
-      </c>
-      <c r="T27" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M27" s="31"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="12"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
@@ -15566,38 +12566,14 @@
       <c r="I28" s="27"/>
       <c r="J28" s="15"/>
       <c r="K28" s="34"/>
-      <c r="M28" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R28" s="9">
-        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S28" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R28)</f>
-        <v>+III</v>
-      </c>
-      <c r="T28" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M28" s="31"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
@@ -15812,7 +12788,7 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M12" sqref="M12:T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15973,11 +12949,11 @@
         <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M12" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="1">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
@@ -15989,11 +12965,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="9" t="str">
@@ -16016,38 +12992,14 @@
       <c r="I12" s="26"/>
       <c r="J12" s="10"/>
       <c r="K12" s="32"/>
-      <c r="M12" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" ref="O12:O13" si="2">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="3">IF(J12="-",0,O12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>+III</v>
-      </c>
-      <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T23" si="4">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="12"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
@@ -16060,38 +13012,14 @@
       <c r="I13" s="26"/>
       <c r="J13" s="10"/>
       <c r="K13" s="32"/>
-      <c r="M13" s="31">
-        <f t="shared" ref="M13:M23" si="5">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
-        <v>1</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" ref="N13:N23" si="6">IF(J13="-",1,M13)</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>+III</v>
-      </c>
-      <c r="T13" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="12"/>
     </row>
     <row r="14" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -16104,38 +13032,14 @@
       <c r="I14" s="26"/>
       <c r="J14" s="10"/>
       <c r="K14" s="32"/>
-      <c r="M14" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" ref="O14:O23" si="7">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" ref="P14:P23" si="8">IF(J14="-",0,O14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>+III</v>
-      </c>
-      <c r="T14" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
@@ -16148,38 +13052,14 @@
       <c r="I15" s="26"/>
       <c r="J15" s="10"/>
       <c r="K15" s="32"/>
-      <c r="M15" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="12"/>
     </row>
     <row r="16" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
@@ -16192,38 +13072,14 @@
       <c r="I16" s="26"/>
       <c r="J16" s="10"/>
       <c r="K16" s="32"/>
-      <c r="M16" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
-      </c>
-      <c r="T16" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="12"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -16236,38 +13092,14 @@
       <c r="I17" s="26"/>
       <c r="J17" s="10"/>
       <c r="K17" s="32"/>
-      <c r="M17" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>+III</v>
-      </c>
-      <c r="T17" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="12"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
@@ -16280,38 +13112,14 @@
       <c r="I18" s="26"/>
       <c r="J18" s="10"/>
       <c r="K18" s="32"/>
-      <c r="M18" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
-      </c>
-      <c r="T18" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="12"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -16324,38 +13132,14 @@
       <c r="I19" s="26"/>
       <c r="J19" s="10"/>
       <c r="K19" s="32"/>
-      <c r="M19" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
-        <v>+III</v>
-      </c>
-      <c r="T19" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="12"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -16368,38 +13152,14 @@
       <c r="I20" s="26"/>
       <c r="J20" s="10"/>
       <c r="K20" s="32"/>
-      <c r="M20" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>+III</v>
-      </c>
-      <c r="T20" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M20" s="31"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="12"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -16412,38 +13172,14 @@
       <c r="I21" s="26"/>
       <c r="J21" s="10"/>
       <c r="K21" s="32"/>
-      <c r="M21" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
-        <v>+III</v>
-      </c>
-      <c r="T21" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M21" s="31"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="12"/>
     </row>
     <row r="22" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
@@ -16456,38 +13192,14 @@
       <c r="I22" s="26"/>
       <c r="J22" s="10"/>
       <c r="K22" s="32"/>
-      <c r="M22" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>+III</v>
-      </c>
-      <c r="T22" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="12"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -16500,38 +13212,14 @@
       <c r="I23" s="26"/>
       <c r="J23" s="10"/>
       <c r="K23" s="32"/>
-      <c r="M23" s="31">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N23" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R23" s="9">
-        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
-        <v>+III</v>
-      </c>
-      <c r="T23" s="12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="12"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>

--- a/benchmarktests/testdefinitions/Benchmarktest_traject 13-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 13-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B244EB5A-8C11-4EBD-B976-466F713987C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19FA8BA-FB8D-4775-AA7E-98961756E15A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="5" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="10" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2482,8 +2482,8 @@
   </sheetPr>
   <dimension ref="B1:L135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,11 +2537,11 @@
       </c>
       <c r="D3" s="22" t="str">
         <f t="shared" ref="D3:D40" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E3" s="22" t="str">
         <f t="shared" ref="E3:E40" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="array" ref="F3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2555,9 +2555,9 @@
         <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I3" s="4">
-        <f t="array" ref="I3">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B3,C3),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I3" s="4" t="str">
+        <f t="array" ref="I3">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B3,C3),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J3" s="4" t="str">
         <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2581,11 +2581,11 @@
       </c>
       <c r="D4" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E4" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F4" s="9" t="str">
         <f t="array" ref="F4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2599,9 +2599,9 @@
         <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I4" s="9">
-        <f t="array" ref="I4">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B4,C4),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I4" s="9" t="str">
+        <f t="array" ref="I4">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B4,C4),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J4" s="9" t="str">
         <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2625,11 +2625,11 @@
       </c>
       <c r="D5" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E5" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F5" s="9" t="str">
         <f t="array" ref="F5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2643,9 +2643,9 @@
         <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I5" s="9">
-        <f t="array" ref="I5">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B5,C5),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I5" s="9" t="str">
+        <f t="array" ref="I5">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B5,C5),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J5" s="9" t="str">
         <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2669,11 +2669,11 @@
       </c>
       <c r="D6" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E6" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F6" s="9" t="str">
         <f t="array" ref="F6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2687,9 +2687,9 @@
         <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I6" s="9">
-        <f t="array" ref="I6">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B6,C6),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I6" s="9" t="str">
+        <f t="array" ref="I6">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B6,C6),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J6" s="9" t="str">
         <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2713,11 +2713,11 @@
       </c>
       <c r="D7" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E7" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F7" s="9" t="str">
         <f t="array" ref="F7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2731,9 +2731,9 @@
         <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I7" s="9">
-        <f t="array" ref="I7">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B7,C7),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I7" s="9" t="str">
+        <f t="array" ref="I7">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B7,C7),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J7" s="9" t="str">
         <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2757,11 +2757,11 @@
       </c>
       <c r="D8" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F8" s="9" t="str">
         <f t="array" ref="F8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2775,9 +2775,9 @@
         <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I8" s="9">
-        <f t="array" ref="I8">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B8,C8),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I8" s="9" t="str">
+        <f t="array" ref="I8">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B8,C8),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J8" s="9" t="str">
         <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2801,11 +2801,11 @@
       </c>
       <c r="D9" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F9" s="9" t="str">
         <f t="array" ref="F9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2819,9 +2819,9 @@
         <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I9" s="9">
-        <f t="array" ref="I9">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B9,C9),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I9" s="9" t="str">
+        <f t="array" ref="I9">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B9,C9),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2845,11 +2845,11 @@
       </c>
       <c r="D10" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F10" s="9" t="str">
         <f t="array" ref="F10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2863,9 +2863,9 @@
         <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I10" s="9">
-        <f t="array" ref="I10">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B10,C10),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I10" s="9" t="str">
+        <f t="array" ref="I10">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B10,C10),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2889,11 +2889,11 @@
       </c>
       <c r="D11" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E11" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F11" s="9" t="str">
         <f t="array" ref="F11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2907,9 +2907,9 @@
         <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I11" s="9">
-        <f t="array" ref="I11">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B11,C11),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I11" s="9" t="str">
+        <f t="array" ref="I11">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B11,C11),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2933,11 +2933,11 @@
       </c>
       <c r="D12" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E12" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F12" s="9" t="str">
         <f t="array" ref="F12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2951,9 +2951,9 @@
         <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I12" s="9">
-        <f t="array" ref="I12">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B12,C12),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I12" s="9" t="str">
+        <f t="array" ref="I12">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B12,C12),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J12" s="9" t="str">
         <f t="array" ref="J12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2977,11 +2977,11 @@
       </c>
       <c r="D13" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E13" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F13" s="9" t="str">
         <f t="array" ref="F13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2995,9 +2995,9 @@
         <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I13" s="9">
-        <f t="array" ref="I13">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B13,C13),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I13" s="9" t="str">
+        <f t="array" ref="I13">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B13,C13),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J13" s="9" t="str">
         <f t="array" ref="J13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3021,11 +3021,11 @@
       </c>
       <c r="D14" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E14" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F14" s="9" t="str">
         <f t="array" ref="F14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3039,9 +3039,9 @@
         <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I14" s="9">
-        <f t="array" ref="I14">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B14,C14),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I14" s="9" t="str">
+        <f t="array" ref="I14">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B14,C14),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J14" s="9" t="str">
         <f t="array" ref="J14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3065,11 +3065,11 @@
       </c>
       <c r="D15" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E15" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F15" s="9" t="str">
         <f t="array" ref="F15">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B15,C15),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3083,9 +3083,9 @@
         <f t="array" ref="H15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I15" s="9">
-        <f t="array" ref="I15">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B15,C15),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I15" s="9" t="str">
+        <f t="array" ref="I15">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B15,C15),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J15" s="9" t="str">
         <f t="array" ref="J15">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3109,11 +3109,11 @@
       </c>
       <c r="D16" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E16" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F16" s="9" t="str">
         <f t="array" ref="F16">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B16,C16),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3127,9 +3127,9 @@
         <f t="array" ref="H16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I16" s="9">
-        <f t="array" ref="I16">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B16,C16),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I16" s="9" t="str">
+        <f t="array" ref="I16">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B16,C16),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J16" s="9" t="str">
         <f t="array" ref="J16">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3153,11 +3153,11 @@
       </c>
       <c r="D17" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E17" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F17" s="9" t="str">
         <f t="array" ref="F17">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B17,C17),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3171,9 +3171,9 @@
         <f t="array" ref="H17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I17" s="9">
-        <f t="array" ref="I17">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B17,C17),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I17" s="9" t="str">
+        <f t="array" ref="I17">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B17,C17),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J17" s="9" t="str">
         <f t="array" ref="J17">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3197,11 +3197,11 @@
       </c>
       <c r="D18" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E18" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F18" s="9" t="str">
         <f t="array" ref="F18">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B18,C18),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3215,9 +3215,9 @@
         <f t="array" ref="H18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I18" s="9">
-        <f t="array" ref="I18">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B18,C18),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I18" s="9" t="str">
+        <f t="array" ref="I18">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B18,C18),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J18" s="9" t="str">
         <f t="array" ref="J18">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3241,11 +3241,11 @@
       </c>
       <c r="D19" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E19" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F19" s="9" t="str">
         <f t="array" ref="F19">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B19,C19),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3259,9 +3259,9 @@
         <f t="array" ref="H19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I19" s="9">
-        <f t="array" ref="I19">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B19,C19),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I19" s="9" t="str">
+        <f t="array" ref="I19">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B19,C19),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J19" s="9" t="str">
         <f t="array" ref="J19">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3285,11 +3285,11 @@
       </c>
       <c r="D20" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E20" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F20" s="9" t="str">
         <f t="array" ref="F20">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B20,C20),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3303,9 +3303,9 @@
         <f t="array" ref="H20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I20" s="9">
-        <f t="array" ref="I20">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B20,C20),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I20" s="9" t="str">
+        <f t="array" ref="I20">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B20,C20),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J20" s="9" t="str">
         <f t="array" ref="J20">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3329,11 +3329,11 @@
       </c>
       <c r="D21" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E21" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F21" s="9" t="str">
         <f t="array" ref="F21">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B21,C21),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3347,9 +3347,9 @@
         <f t="array" ref="H21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I21" s="9">
-        <f t="array" ref="I21">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B21,C21),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I21" s="9" t="str">
+        <f t="array" ref="I21">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B21,C21),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J21" s="9" t="str">
         <f t="array" ref="J21">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3373,11 +3373,11 @@
       </c>
       <c r="D22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E22" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F22" s="9" t="str">
         <f t="array" ref="F22">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B22,C22),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3391,9 +3391,9 @@
         <f t="array" ref="H22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I22" s="9">
-        <f t="array" ref="I22">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B22,C22),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I22" s="9" t="str">
+        <f t="array" ref="I22">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B22,C22),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J22" s="9" t="str">
         <f t="array" ref="J22">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3417,11 +3417,11 @@
       </c>
       <c r="D23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F23" s="9" t="str">
         <f t="array" ref="F23">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B23,C23),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3435,9 +3435,9 @@
         <f t="array" ref="H23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I23" s="9">
-        <f t="array" ref="I23">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B23,C23),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I23" s="9" t="str">
+        <f t="array" ref="I23">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B23,C23),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J23" s="9" t="str">
         <f t="array" ref="J23">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3461,11 +3461,11 @@
       </c>
       <c r="D24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F24" s="9" t="str">
         <f t="array" ref="F24">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B24,C24),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3479,9 +3479,9 @@
         <f t="array" ref="H24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I24" s="9">
-        <f t="array" ref="I24">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B24,C24),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I24" s="9" t="str">
+        <f t="array" ref="I24">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B24,C24),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J24" s="9" t="str">
         <f t="array" ref="J24">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3505,11 +3505,11 @@
       </c>
       <c r="D25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E25" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F25" s="9" t="str">
         <f t="array" ref="F25">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B25,C25),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3523,9 +3523,9 @@
         <f t="array" ref="H25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I25" s="9">
-        <f t="array" ref="I25">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B25,C25),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I25" s="9" t="str">
+        <f t="array" ref="I25">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B25,C25),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J25" s="9" t="str">
         <f t="array" ref="J25">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3549,11 +3549,11 @@
       </c>
       <c r="D26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E26" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F26" s="9" t="str">
         <f t="array" ref="F26">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B26,C26),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3567,9 +3567,9 @@
         <f t="array" ref="H26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I26" s="9">
-        <f t="array" ref="I26">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B26,C26),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I26" s="9" t="str">
+        <f t="array" ref="I26">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B26,C26),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J26" s="9" t="str">
         <f t="array" ref="J26">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3593,11 +3593,11 @@
       </c>
       <c r="D27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E27" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F27" s="9" t="str">
         <f t="array" ref="F27">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B27,C27),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3611,9 +3611,9 @@
         <f t="array" ref="H27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I27" s="9">
-        <f t="array" ref="I27">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B27,C27),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I27" s="9" t="str">
+        <f t="array" ref="I27">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B27,C27),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J27" s="9" t="str">
         <f t="array" ref="J27">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3637,11 +3637,11 @@
       </c>
       <c r="D28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F28" s="9" t="str">
         <f t="array" ref="F28">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B28,C28),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3655,9 +3655,9 @@
         <f t="array" ref="H28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I28" s="9">
-        <f t="array" ref="I28">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B28,C28),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I28" s="9" t="str">
+        <f t="array" ref="I28">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B28,C28),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J28" s="9" t="str">
         <f t="array" ref="J28">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3681,11 +3681,11 @@
       </c>
       <c r="D29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E29" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F29" s="9" t="str">
         <f t="array" ref="F29">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B29,C29),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3699,9 +3699,9 @@
         <f t="array" ref="H29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I29" s="9">
-        <f t="array" ref="I29">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B29,C29),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I29" s="9" t="str">
+        <f t="array" ref="I29">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B29,C29),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J29" s="9" t="str">
         <f t="array" ref="J29">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3725,11 +3725,11 @@
       </c>
       <c r="D30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F30" s="9" t="str">
         <f t="array" ref="F30">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B30,C30),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3743,9 +3743,9 @@
         <f t="array" ref="H30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I30" s="9">
-        <f t="array" ref="I30">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B30,C30),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I30" s="9" t="str">
+        <f t="array" ref="I30">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B30,C30),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J30" s="9" t="str">
         <f t="array" ref="J30">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3769,11 +3769,11 @@
       </c>
       <c r="D31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E31" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F31" s="9" t="str">
         <f t="array" ref="F31">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B31,C31),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3787,9 +3787,9 @@
         <f t="array" ref="H31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I31" s="9">
-        <f t="array" ref="I31">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B31,C31),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I31" s="9" t="str">
+        <f t="array" ref="I31">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B31,C31),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J31" s="9" t="str">
         <f t="array" ref="J31">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3813,11 +3813,11 @@
       </c>
       <c r="D32" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E32" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F32" s="9" t="str">
         <f t="array" ref="F32">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B32,C32),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3831,9 +3831,9 @@
         <f t="array" ref="H32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I32" s="9">
-        <f t="array" ref="I32">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B32,C32),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I32" s="9" t="str">
+        <f t="array" ref="I32">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B32,C32),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J32" s="9" t="str">
         <f t="array" ref="J32">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3857,11 +3857,11 @@
       </c>
       <c r="D33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E33" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F33" s="9" t="str">
         <f t="array" ref="F33">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B33,C33),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3875,9 +3875,9 @@
         <f t="array" ref="H33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I33" s="9">
-        <f t="array" ref="I33">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B33,C33),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I33" s="9" t="str">
+        <f t="array" ref="I33">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B33,C33),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J33" s="9" t="str">
         <f t="array" ref="J33">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3901,11 +3901,11 @@
       </c>
       <c r="D34" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E34" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F34" s="9" t="str">
         <f t="array" ref="F34">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B34,C34),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3919,9 +3919,9 @@
         <f t="array" ref="H34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I34" s="9">
-        <f t="array" ref="I34">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B34,C34),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I34" s="9" t="str">
+        <f t="array" ref="I34">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B34,C34),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J34" s="9" t="str">
         <f t="array" ref="J34">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3945,11 +3945,11 @@
       </c>
       <c r="D35" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E35" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F35" s="9" t="str">
         <f t="array" ref="F35">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B35,C35),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -3963,9 +3963,9 @@
         <f t="array" ref="H35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I35" s="9">
-        <f t="array" ref="I35">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B35,C35),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I35" s="9" t="str">
+        <f t="array" ref="I35">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B35,C35),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J35" s="9" t="str">
         <f t="array" ref="J35">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -3989,11 +3989,11 @@
       </c>
       <c r="D36" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E36" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F36" s="9" t="str">
         <f t="array" ref="F36">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B36,C36),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4007,9 +4007,9 @@
         <f t="array" ref="H36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I36" s="9">
-        <f t="array" ref="I36">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B36,C36),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I36" s="9" t="str">
+        <f t="array" ref="I36">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B36,C36),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J36" s="9" t="str">
         <f t="array" ref="J36">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -4033,11 +4033,11 @@
       </c>
       <c r="D37" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E37" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F37" s="9" t="str">
         <f t="array" ref="F37">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B37,C37),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4051,9 +4051,9 @@
         <f t="array" ref="H37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I37" s="9">
-        <f t="array" ref="I37">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B37,C37),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I37" s="9" t="str">
+        <f t="array" ref="I37">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B37,C37),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J37" s="9" t="str">
         <f t="array" ref="J37">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -4077,11 +4077,11 @@
       </c>
       <c r="D38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E38" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F38" s="9" t="str">
         <f t="array" ref="F38">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B38,C38),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4095,9 +4095,9 @@
         <f t="array" ref="H38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I38" s="9">
-        <f t="array" ref="I38">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B38,C38),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I38" s="9" t="str">
+        <f t="array" ref="I38">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B38,C38),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J38" s="9" t="str">
         <f t="array" ref="J38">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -4121,11 +4121,11 @@
       </c>
       <c r="D39" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E39" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F39" s="9" t="str">
         <f t="array" ref="F39">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B39,C39),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4139,9 +4139,9 @@
         <f t="array" ref="H39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I39" s="9">
-        <f t="array" ref="I39">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B39,C39),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I39" s="9" t="str">
+        <f t="array" ref="I39">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B39,C39),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J39" s="9" t="str">
         <f t="array" ref="J39">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -4165,11 +4165,11 @@
       </c>
       <c r="D40" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="E40" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="F40" s="9" t="str">
         <f t="array" ref="F40">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B40,C40),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4183,9 +4183,9 @@
         <f t="array" ref="H40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>NR</v>
       </c>
-      <c r="I40" s="9">
-        <f t="array" ref="I40">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B40,C40),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
+      <c r="I40" s="9" t="str">
+        <f t="array" ref="I40">INDEX(DA!$K$11:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$71&gt;AVERAGE(B40,C40),DA!$D$11:$D$71)),DA!$D$11:$D$71),1))</f>
+        <v>+III</v>
       </c>
       <c r="J40" s="9" t="str">
         <f t="array" ref="J40">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -8508,7 +8508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA3C0E-3A5C-4A61-A32F-6BC05AD0EB33}">
   <dimension ref="B2:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/benchmarktests/testdefinitions/Benchmarktest_traject 13-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 13-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19FA8BA-FB8D-4775-AA7E-98961756E15A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1417FE95-07A9-4708-8C9D-B416CC7BB112}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="10" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="137">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -2174,8 +2174,8 @@
   </sheetPr>
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,20 +2190,20 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
+        <f>IFERROR(1-PRODUCT(G7:G14),"GR")</f>
         <v>4.6799999986468777E-8</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,H2))</f>
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="G2">
-        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>1.111111111111111E-5</v>
+        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>IFERROR(MATCH(G2,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2211,20 +2211,20 @@
         <v>83</v>
       </c>
       <c r="D3" s="1">
-        <f>1-PRODUCT(H7:H12)</f>
+        <f>1-PRODUCT(H7:H14)</f>
         <v>4.6799999986468777E-8</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,H3)</f>
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="G3">
-        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>1.111111111111111E-5</v>
+        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>IFERROR(MATCH(G3,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2286,11 +2286,11 @@
       </c>
       <c r="E8" s="44"/>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G14" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" ref="G8:G13" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:H14" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" ref="H8:H13" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
         <v>1</v>
       </c>
     </row>
@@ -2383,9 +2383,17 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="31">
+        <f>BSKW!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="26">
+        <f>BSKW!C6</f>
+        <v>0</v>
+      </c>
       <c r="E13" s="44"/>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
@@ -2401,14 +2409,8 @@
       <c r="C14" s="33"/>
       <c r="D14" s="27"/>
       <c r="E14" s="46"/>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2482,7 +2484,7 @@
   </sheetPr>
   <dimension ref="B1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
